--- a/Data/EC/NIT-9009500611.xlsx
+++ b/Data/EC/NIT-9009500611.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E769FD-9409-4CA6-8E12-972FAADE0903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A689B0-6CC6-4B7C-9D8F-3564934D234A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3746485B-B9A0-4317-96BF-D92BD3E87335}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1E03441-1B35-498D-B708-8B0396635140}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,55 @@
     <t>CARLOS ALBERTO CAMACHO COGOLLO</t>
   </si>
   <si>
+    <t>1908</t>
+  </si>
+  <si>
     <t>1907</t>
   </si>
   <si>
-    <t>1908</t>
+    <t>73118096</t>
+  </si>
+  <si>
+    <t>ALVARO ALFONSO ALTAMIRANDA SIERRA</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
   </si>
   <si>
     <t>1051446308</t>
@@ -83,76 +128,31 @@
     <t>JHON RAFAEL CASTILLO CORONADO</t>
   </si>
   <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
     <t>2104</t>
   </si>
   <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>73118096</t>
-  </si>
-  <si>
-    <t>ALVARO ALFONSO ALTAMIRANDA SIERRA</t>
-  </si>
-  <si>
-    <t>2109</t>
+    <t>8703144</t>
+  </si>
+  <si>
+    <t>RAUL CONCEPCION ALVARADO ABAD</t>
   </si>
   <si>
     <t>73229861</t>
   </si>
   <si>
     <t>JAIRO LUIS SALGADO VERGARA</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>8703144</t>
-  </si>
-  <si>
-    <t>RAUL CONCEPCION ALVARADO ABAD</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -196,7 +196,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A89FF0-5012-AE8D-BAC8-EA0D34F5414B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD09091C-1946-5F5E-87B9-01CB42A6A9DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,28 +917,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453C08EC-CA9F-4AA5-B28C-8B8B0631BD5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C71C60F-5B13-4804-B69A-2C65875FC413}">
   <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -951,7 +951,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -962,7 +962,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -973,7 +973,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -984,8 +984,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1000,8 +1000,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1016,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1032,8 +1032,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1095,16 +1095,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1118,16 +1118,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>10902</v>
+        <v>31495</v>
       </c>
       <c r="G18" s="18">
         <v>908526</v>
@@ -1150,7 +1150,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1242,21 +1242,21 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F23" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
         <v>908526</v>
@@ -1265,18 +1265,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1288,7 +1288,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1334,18 +1334,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1357,15 +1357,15 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>25</v>
@@ -1380,7 +1380,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1403,21 +1403,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G30" s="18">
         <v>908526</v>
@@ -1426,360 +1426,360 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F31" s="18">
-        <v>6057</v>
+        <v>31495</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
       </c>
       <c r="G36" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F37" s="18">
         <v>36341</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
       </c>
       <c r="G38" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F40" s="18">
         <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F43" s="18">
         <v>36341</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
       </c>
       <c r="G45" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>32</v>
@@ -1788,73 +1788,73 @@
         <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
       </c>
       <c r="G47" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F48" s="18">
-        <v>36341</v>
+        <v>10902</v>
       </c>
       <c r="G48" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F49" s="18">
-        <v>36341</v>
+        <v>31495</v>
       </c>
       <c r="G49" s="18">
         <v>908526</v>
@@ -1863,18 +1863,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1886,18 +1886,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -1909,18 +1909,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F52" s="18">
         <v>36341</v>
@@ -1932,18 +1932,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -1955,18 +1955,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F54" s="18">
         <v>36341</v>
@@ -1978,18 +1978,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F55" s="18">
         <v>36341</v>
@@ -2001,18 +2001,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2024,18 +2024,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2047,18 +2047,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2070,21 +2070,21 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F59" s="18">
-        <v>36341</v>
+        <v>6057</v>
       </c>
       <c r="G59" s="18">
         <v>908526</v>
@@ -2093,21 +2093,21 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F60" s="18">
-        <v>36341</v>
+        <v>31495</v>
       </c>
       <c r="G60" s="18">
         <v>908526</v>
@@ -2116,18 +2116,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2139,18 +2139,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2162,18 +2162,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2185,18 +2185,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2208,18 +2208,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2231,18 +2231,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D66" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2254,18 +2254,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2277,18 +2277,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2300,21 +2300,21 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F69" s="18">
-        <v>31495</v>
+        <v>36341</v>
       </c>
       <c r="G69" s="18">
         <v>908526</v>
@@ -2323,21 +2323,21 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F70" s="18">
-        <v>31495</v>
+        <v>36341</v>
       </c>
       <c r="G70" s="18">
         <v>908526</v>
@@ -2346,21 +2346,21 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F71" s="18">
-        <v>31495</v>
+        <v>36341</v>
       </c>
       <c r="G71" s="18">
         <v>908526</v>
@@ -2369,21 +2369,21 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F72" s="24">
-        <v>31495</v>
+        <v>36341</v>
       </c>
       <c r="G72" s="24">
         <v>908526</v>
@@ -2392,7 +2392,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="26"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="32" t="s">
         <v>48</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="32" t="s">
         <v>47</v>
       </c>

--- a/Data/EC/NIT-9009500611.xlsx
+++ b/Data/EC/NIT-9009500611.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A689B0-6CC6-4B7C-9D8F-3564934D234A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF97380-B3CA-4DDC-9885-EA832A6A4B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1E03441-1B35-498D-B708-8B0396635140}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{12793AAC-114B-4C02-BE99-DC5795CBC1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,31 @@
     <t>CARLOS ALBERTO CAMACHO COGOLLO</t>
   </si>
   <si>
+    <t>1907</t>
+  </si>
+  <si>
     <t>1908</t>
   </si>
   <si>
-    <t>1907</t>
+    <t>1051446308</t>
+  </si>
+  <si>
+    <t>JHON RAFAEL CASTILLO CORONADO</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
   </si>
   <si>
     <t>73118096</t>
@@ -83,76 +104,55 @@
     <t>ALVARO ALFONSO ALTAMIRANDA SIERRA</t>
   </si>
   <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>73229861</t>
+  </si>
+  <si>
+    <t>JAIRO LUIS SALGADO VERGARA</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>8703144</t>
+  </si>
+  <si>
+    <t>RAUL CONCEPCION ALVARADO ABAD</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1051446308</t>
-  </si>
-  <si>
-    <t>JHON RAFAEL CASTILLO CORONADO</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>8703144</t>
-  </si>
-  <si>
-    <t>RAUL CONCEPCION ALVARADO ABAD</t>
-  </si>
-  <si>
-    <t>73229861</t>
-  </si>
-  <si>
-    <t>JAIRO LUIS SALGADO VERGARA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -196,7 +196,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -264,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -466,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,13 +551,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -566,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD09091C-1946-5F5E-87B9-01CB42A6A9DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9613B118-885E-FD20-9E16-E53280F4924E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -588,7 +588,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -917,28 +917,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C71C60F-5B13-4804-B69A-2C65875FC413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA58ED7-45AE-45E7-8001-5C98BCE90008}">
   <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -951,7 +951,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -962,7 +962,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -973,7 +973,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -984,8 +984,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1000,8 +1000,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1016,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1032,8 +1032,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1095,16 +1095,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1118,16 +1118,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>31495</v>
+        <v>10902</v>
       </c>
       <c r="G18" s="18">
         <v>908526</v>
@@ -1150,7 +1150,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1242,21 +1242,21 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G23" s="18">
         <v>908526</v>
@@ -1265,7 +1265,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1288,15 +1288,15 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>22</v>
@@ -1311,18 +1311,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1334,7 +1334,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1357,15 +1357,15 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>25</v>
@@ -1380,15 +1380,15 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
@@ -1403,7 +1403,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1414,10 +1414,10 @@
         <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
         <v>908526</v>
@@ -1426,360 +1426,360 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="E31" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31495</v>
+        <v>6057</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F33" s="18">
         <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F34" s="18">
         <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F35" s="18">
         <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F36" s="18">
         <v>36341</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
         <v>36341</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F43" s="18">
         <v>36341</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
       </c>
       <c r="G45" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>32</v>
@@ -1788,73 +1788,73 @@
         <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="E47" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" s="18">
-        <v>10902</v>
+        <v>36341</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F49" s="18">
-        <v>31495</v>
+        <v>36341</v>
       </c>
       <c r="G49" s="18">
         <v>908526</v>
@@ -1863,18 +1863,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1886,18 +1886,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -1909,18 +1909,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F52" s="18">
         <v>36341</v>
@@ -1932,18 +1932,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -1955,18 +1955,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F54" s="18">
         <v>36341</v>
@@ -1978,18 +1978,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
         <v>36341</v>
@@ -2001,18 +2001,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2024,18 +2024,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2047,18 +2047,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2070,21 +2070,21 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F59" s="18">
-        <v>6057</v>
+        <v>36341</v>
       </c>
       <c r="G59" s="18">
         <v>908526</v>
@@ -2093,21 +2093,21 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>31495</v>
+        <v>36341</v>
       </c>
       <c r="G60" s="18">
         <v>908526</v>
@@ -2116,18 +2116,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2139,18 +2139,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2162,18 +2162,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2185,18 +2185,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2208,18 +2208,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2231,18 +2231,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2254,18 +2254,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2277,18 +2277,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2300,21 +2300,21 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D69" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F69" s="18">
-        <v>36341</v>
+        <v>31495</v>
       </c>
       <c r="G69" s="18">
         <v>908526</v>
@@ -2323,21 +2323,21 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D70" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F70" s="18">
-        <v>36341</v>
+        <v>31495</v>
       </c>
       <c r="G70" s="18">
         <v>908526</v>
@@ -2346,21 +2346,21 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F71" s="18">
-        <v>36341</v>
+        <v>31495</v>
       </c>
       <c r="G71" s="18">
         <v>908526</v>
@@ -2369,21 +2369,21 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D72" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E72" s="22" t="s">
-        <v>27</v>
-      </c>
       <c r="F72" s="24">
-        <v>36341</v>
+        <v>31495</v>
       </c>
       <c r="G72" s="24">
         <v>908526</v>
@@ -2392,7 +2392,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="26"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="32" t="s">
         <v>48</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="32" t="s">
         <v>47</v>
       </c>
